--- a/target/test-classes/TestData/dsAlgo_TestData.xlsx
+++ b/target/test-classes/TestData/dsAlgo_TestData.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurr\eclipse-workspace\ClubNinjas-dsAlgoBDD\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15C0CB-79D6-432D-97D4-4BE4F4D8571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId1"/>
+    <sheet name="Valid_Login" sheetId="3" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +26,161 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>SeleniumProj@25</t>
+  </si>
+  <si>
+    <t>clubNinjas-Sdet207</t>
+  </si>
+  <si>
+    <t>Successful registration</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Testbuster@123</t>
+  </si>
+  <si>
+    <t>Error on confirm password feilds. Pass</t>
+  </si>
+  <si>
+    <t>One password left blank.Error</t>
+  </si>
+  <si>
+    <t>Error on password feild. Pass</t>
+  </si>
+  <si>
+    <t>Defect. Password feilds are accpeting commenly used words</t>
+  </si>
+  <si>
+    <t>Commonly used</t>
+  </si>
+  <si>
+    <t>Defect. Password feilds are accepting entire numeric data.</t>
+  </si>
+  <si>
+    <t>Can't be completely numeric. Error</t>
+  </si>
+  <si>
+    <t>Defect. Less than 8 digits should not be accepted.
+Error"password_mismatch:The two password fields didn’t match."</t>
+  </si>
+  <si>
+    <t>Less than 8 digit.Error</t>
+  </si>
+  <si>
+    <t>test098</t>
+  </si>
+  <si>
+    <t>Error in Username feild which is valid</t>
+  </si>
+  <si>
+    <t>Valid Passwords</t>
+  </si>
+  <si>
+    <t>Test_987</t>
+  </si>
+  <si>
+    <t>Defect. Shows Password Mismatch error when user enters valid password in both feilds. If no password is entered or passwords is entered then it shows password feild is required but no error is shown that user username is invalid.</t>
+  </si>
+  <si>
+    <t>Invalid Username error</t>
+  </si>
+  <si>
+    <t>Valid Username</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Comments(Expected)</t>
+  </si>
+  <si>
+    <t>confirm password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>clubNinjasSdet207</t>
+  </si>
+  <si>
+    <t>clubNinjas@207</t>
+  </si>
+  <si>
+    <t>clubNinjas^1$(&amp;</t>
+  </si>
+  <si>
+    <t>clubNinjas&amp;#*^#^(</t>
+  </si>
+  <si>
+    <t>clubNinjas@123</t>
+  </si>
+  <si>
+    <t>clubNinjas0207</t>
+  </si>
+  <si>
+    <t>cbcbcbhh</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +199,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F6EA87B9-CC5E-4A27-8896-11A5F3570683}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +529,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C398C-E6ED-4288-AAE3-7B8827B424E0}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="12.6328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>207207208</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9">
+        <v>987654321</v>
+      </c>
+      <c r="C11" s="9">
+        <v>987654321</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{E57784E0-9175-4B69-8570-1346A4233AF2}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{38AE301F-3459-43D6-B0C8-22ABF3B9A333}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{63D0777F-9799-4A20-BA86-DBA70D8EA4BC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19390E6-AB14-4B31-A0B5-2F88190D0871}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{23CB3FB1-0FA9-48D0-85C1-1583AC770DBF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{08128789-F0FF-4810-AFFE-2FF1C73369F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/test-classes/TestData/dsAlgo_TestData.xlsx
+++ b/target/test-classes/TestData/dsAlgo_TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurr\eclipse-workspace\ClubNinjas-dsAlgoBDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15C0CB-79D6-432D-97D4-4BE4F4D8571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BB848-3689-45D5-8CBA-21E21ADE144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
     <sheet name="Valid_Login" sheetId="3" r:id="rId2"/>
-    <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="Tree" sheetId="4" r:id="rId3"/>
+    <sheet name="Login" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>UserName</t>
   </si>
@@ -133,13 +134,67 @@
   </si>
   <si>
     <t>cbcbcbhh</t>
+  </si>
+  <si>
+    <t>clubNinjas-Sdet207&amp;%^()</t>
+  </si>
+  <si>
+    <t>pythoncode</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>print "hello"</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>A23df</t>
+  </si>
+  <si>
+    <t>NameError: name 'A23df' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>alphanumeric check</t>
+  </si>
+  <si>
+    <t>number check</t>
+  </si>
+  <si>
+    <t>$%%^$^</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad token T_OP on line 1</t>
+  </si>
+  <si>
+    <t>special charecters check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t>Error:input some data</t>
+  </si>
+  <si>
+    <t>blank space check</t>
+  </si>
+  <si>
+    <t>print "hello</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 1</t>
+  </si>
+  <si>
+    <t>syntax check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +237,23 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,13 +286,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -248,6 +335,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1824,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19390E6-AB14-4B31-A0B5-2F88190D0871}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1859,16 +1953,109 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093EE71B-0BBB-4E3D-8718-2438AE892D64}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>123434</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.08984375" bestFit="1" customWidth="1"/>
@@ -1906,7 +2093,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>

--- a/target/test-classes/TestData/dsAlgo_TestData.xlsx
+++ b/target/test-classes/TestData/dsAlgo_TestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimre\eclipse-workspace\DSAlgoBDD_ClubNinjas\clubNinjas-BDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B7E80-6FBF-4BED-B9C6-B7907F57D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCE862-317A-4206-B652-EA4A6D4D0F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
     <sheet name="Valid_Login" sheetId="3" r:id="rId2"/>
     <sheet name="Login" sheetId="1" r:id="rId3"/>
-    <sheet name="ArrayTryCode" sheetId="4" r:id="rId4"/>
+    <sheet name="TryCode" sheetId="4" r:id="rId4"/>
     <sheet name="PracticeQns" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -378,6 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2067,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6805FF-85F8-4503-AEFF-417C4DCED9F7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2124,7 +2125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C156544-10E3-4CC6-B021-D85ABA7773B9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2213,7 +2214,7 @@
       <c r="A8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -2235,7 +2236,7 @@
       <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="20">
         <v>2</v>
       </c>
       <c r="C10" t="s">

--- a/target/test-classes/TestData/dsAlgo_TestData.xlsx
+++ b/target/test-classes/TestData/dsAlgo_TestData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurr\eclipse-workspace\ClubNinjas-dsAlgoBDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BB848-3689-45D5-8CBA-21E21ADE144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838370F-EE57-475B-957F-664807FBAA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
     <sheet name="Valid_Login" sheetId="3" r:id="rId2"/>
-    <sheet name="Tree" sheetId="4" r:id="rId3"/>
-    <sheet name="Login" sheetId="1" r:id="rId4"/>
+    <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="Graph" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>UserName</t>
   </si>
@@ -51,22 +51,10 @@
     <t>Testbuster@123</t>
   </si>
   <si>
-    <t>Error on confirm password feilds. Pass</t>
-  </si>
-  <si>
     <t>One password left blank.Error</t>
   </si>
   <si>
-    <t>Error on password feild. Pass</t>
-  </si>
-  <si>
-    <t>Defect. Password feilds are accpeting commenly used words</t>
-  </si>
-  <si>
     <t>Commonly used</t>
-  </si>
-  <si>
-    <t>Defect. Password feilds are accepting entire numeric data.</t>
   </si>
   <si>
     <t>Can't be completely numeric. Error</t>
@@ -82,18 +70,12 @@
     <t>test098</t>
   </si>
   <si>
-    <t>Error in Username feild which is valid</t>
-  </si>
-  <si>
     <t>Valid Passwords</t>
   </si>
   <si>
     <t>Test_987</t>
   </si>
   <si>
-    <t>Defect. Shows Password Mismatch error when user enters valid password in both feilds. If no password is entered or passwords is entered then it shows password feild is required but no error is shown that user username is invalid.</t>
-  </si>
-  <si>
     <t>Invalid Username error</t>
   </si>
   <si>
@@ -137,6 +119,27 @@
   </si>
   <si>
     <t>clubNinjas-Sdet207&amp;%^()</t>
+  </si>
+  <si>
+    <t>Defect. Password fields are accepting entire numeric data.</t>
+  </si>
+  <si>
+    <t>Defect. Password fields are accpeting commenly used words</t>
+  </si>
+  <si>
+    <t>Error on password field. Pass</t>
+  </si>
+  <si>
+    <t>Error on confirm password fields. Pass</t>
+  </si>
+  <si>
+    <t>Error in Username field which is valid</t>
+  </si>
+  <si>
+    <t>Defect. Shows Password Mismatch error when user enters valid password in both field. If no password is entered or passwords is entered then it shows password field is required but no error is shown that user username is invalid.</t>
+  </si>
+  <si>
+    <t>Defect. Shows Password Mismatch error when user enters valid password in both fields. If no password is entered or passwords is entered then it shows password feild is required but no error is shown that user username is invalid.</t>
   </si>
   <si>
     <t>pythoncode</t>
@@ -630,7 +633,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -646,27 +649,27 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
@@ -677,7 +680,7 @@
         <v>207207208</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="5"/>
@@ -685,12 +688,12 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
@@ -698,7 +701,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -710,7 +713,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -719,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
@@ -730,7 +733,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -739,10 +742,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -756,10 +759,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
@@ -768,16 +771,16 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
@@ -785,26 +788,26 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" s="9">
         <v>987654321</v>
@@ -813,10 +816,10 @@
         <v>987654321</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
@@ -824,7 +827,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>1</v>
@@ -833,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -844,16 +847,16 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -861,17 +864,17 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -879,7 +882,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>5</v>
@@ -1919,7 +1922,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1930,10 +1933,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1953,99 +1956,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093EE71B-0BBB-4E3D-8718-2438AE892D64}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
-        <v>123434</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2087,13 +1997,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -2118,4 +2028,94 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F35F7A1-F140-4775-834A-27596D852A38}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>123434</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/TestData/dsAlgo_TestData.xlsx
+++ b/target/test-classes/TestData/dsAlgo_TestData.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimre\eclipse-workspace\DSAlgoBDD_ClubNinjas\clubNinjas-BDD\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurr\eclipse-workspace\ClubNinjas-dsAlgoBDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15A1852-0A94-416F-A01A-04A7D79418E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4A0B10-8925-4351-B15D-69B74E3DB248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
-    <sheet name="Graph" sheetId="6" r:id="rId2"/>
-    <sheet name="Valid_Login" sheetId="3" r:id="rId3"/>
-    <sheet name="Login" sheetId="1" r:id="rId4"/>
+    <sheet name="Valid_Login" sheetId="3" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="Graph" sheetId="6" r:id="rId4"/>
     <sheet name="TryCode" sheetId="4" r:id="rId5"/>
     <sheet name="PracticeQns" sheetId="5" r:id="rId6"/>
     <sheet name="Tree" sheetId="8" r:id="rId7"/>
@@ -433,7 +433,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -483,20 +483,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -789,18 +775,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.06640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.9296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="12.59765625" style="3"/>
+    <col min="1" max="1" width="16.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="12.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -817,7 +803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -828,7 +814,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>207207208</v>
       </c>
@@ -839,7 +825,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -852,7 +838,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -864,7 +850,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -884,7 +870,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
@@ -904,7 +890,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -921,7 +907,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>19</v>
@@ -939,7 +925,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -958,7 +944,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -978,7 +964,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -998,7 +984,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1015,7 +1001,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1019,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1050,1015 +1036,1015 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="933" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="934" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="935" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="936" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="937" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="938" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="939" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="940" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="941" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="942" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="943" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="944" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="945" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="946" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="947" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="948" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="949" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="950" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="951" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="952" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="953" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="954" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="955" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="956" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="957" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="958" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="959" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="960" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="961" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="962" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="963" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="964" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="965" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="966" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="967" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="968" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="969" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="970" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="971" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="972" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="973" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="974" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="975" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="976" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="977" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="978" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="979" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="980" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="981" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="982" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="983" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="984" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="985" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="986" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="987" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="988" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="989" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="990" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="991" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="992" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="993" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="994" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="995" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="996" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="997" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="998" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="999" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1000" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{E57784E0-9175-4B69-8570-1346A4233AF2}"/>
@@ -2071,96 +2057,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36287EC-5C35-4A53-A766-4648041612D3}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="25">
-        <v>123434</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19390E6-AB14-4B31-A0B5-2F88190D0871}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2168,13 +2064,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
@@ -2182,7 +2078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2206,15 +2102,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2222,20 +2118,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2244,7 +2140,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2253,22 +2149,112 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{08128789-F0FF-4810-AFFE-2FF1C73369F4}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36287EC-5C35-4A53-A766-4648041612D3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>123434</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2281,13 +2267,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -2295,13 +2281,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -2309,7 +2295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2317,7 +2303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -2338,14 +2324,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.06640625" customWidth="1"/>
-    <col min="2" max="2" width="41.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.08984375" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -2353,7 +2339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
@@ -2364,7 +2350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -2375,7 +2361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
@@ -2386,7 +2372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -2397,7 +2383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>48</v>
       </c>
@@ -2408,7 +2394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>48</v>
       </c>
@@ -2419,7 +2405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="171" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="174" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>51</v>
       </c>
@@ -2430,7 +2416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="171" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>51</v>
       </c>
@@ -2441,7 +2427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="145" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>52</v>
       </c>
@@ -2463,7 +2449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>53</v>
       </c>
@@ -2474,7 +2460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>53</v>
       </c>
@@ -2498,49 +2484,48 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.46484375" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2551,53 +2536,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211C5693-AF54-4688-97C1-F40991A5ED17}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" customWidth="1"/>
-    <col min="2" max="2" width="28.796875" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
